--- a/store_data.xlsx
+++ b/store_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\OneDrive\Desktop\sl\store-locator-plug-in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\OneDrive\Documents\GitHub\store_locator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EA9AF8-92C8-40F7-9C33-1723711F1FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585E1A33-0924-4102-AF95-929FC875AB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -59,24 +59,6 @@
   </si>
   <si>
     <t>timings</t>
-  </si>
-  <si>
-    <t>Anish Ghosh</t>
-  </si>
-  <si>
-    <t>Gobardanga</t>
-  </si>
-  <si>
-    <t>West Bengal</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>&lt;iframe src="https://www.google.com/maps/embed?pb=!1m14!1m12!1m3!1d229.73642848628575!2d88.76029907075711!3d22.88447851186786!2m3!1f0!2f0!3f0!3m2!1i1024!2i768!4f13.1!5e0!3m2!1sen!2sin!4v1746872356232!5m2!1sen!2sin" width="600" height="450" style="border:0;" allowfullscreen="" loading="lazy" referrerpolicy="no-referrer-when-downgrade"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>07:00AM - 07:00PM</t>
   </si>
 </sst>
 </file>
@@ -435,7 +417,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -474,31 +456,15 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5">
-        <v>743252</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="9">
-        <v>6296799938</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="11"/>

--- a/store_data.xlsx
+++ b/store_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\OneDrive\Documents\GitHub\store_locator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585E1A33-0924-4102-AF95-929FC875AB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628A9513-D898-4F86-B528-351A46223701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/store_data.xlsx
+++ b/store_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\OneDrive\Documents\GitHub\store_locator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628A9513-D898-4F86-B528-351A46223701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97A2822-FF88-459E-8CCB-155B680811AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/store_data.xlsx
+++ b/store_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghosh\OneDrive\Documents\GitHub\store_locator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97A2822-FF88-459E-8CCB-155B680811AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6D8419-5A95-4D12-B1D9-A73937A3F787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="A2:J2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
